--- a/Scrapy/Scrapers/what.xlsx
+++ b/Scrapy/Scrapers/what.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\leadgeneration\mywork\lead_generation\Scrapy\yellowpages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\leadgeneration\yp-scraper\Scrapy\Scrapers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF890AB-66DB-4ED9-A585-C37D84D85327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25729304-944F-49E9-8B98-715FA0AEDCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>what</t>
   </si>
   <si>
-    <t>Camping Equipment</t>
+    <t>Restaurants, Bars &amp; Cafés</t>
   </si>
 </sst>
 </file>
@@ -66,8 +66,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -369,6 +372,12 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Scrapy/Scrapers/what.xlsx
+++ b/Scrapy/Scrapers/what.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\leadgeneration\yp-scraper\Scrapy\Scrapers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\leadgeneration\mywork\lead_generation\Scrapy\Scrapers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25729304-944F-49E9-8B98-715FA0AEDCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498C957B-3895-46CE-BC4D-91FA7A89BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>what</t>
   </si>
   <si>
-    <t>Restaurants, Bars &amp; Cafés</t>
+    <t>Restaurants</t>
   </si>
 </sst>
 </file>
